--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.4479585</v>
+        <v>3.288225</v>
       </c>
       <c r="H2">
-        <v>14.895917</v>
+        <v>6.57645</v>
       </c>
       <c r="I2">
-        <v>0.4326517558596669</v>
+        <v>0.3133925299913269</v>
       </c>
       <c r="J2">
-        <v>0.3540927463829852</v>
+        <v>0.2580541747196806</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.4479585</v>
+        <v>3.288225</v>
       </c>
       <c r="N2">
-        <v>14.895917</v>
+        <v>6.57645</v>
       </c>
       <c r="O2">
-        <v>0.4326517558596669</v>
+        <v>0.3133925299913269</v>
       </c>
       <c r="P2">
-        <v>0.3540927463829852</v>
+        <v>0.2580541747196806</v>
       </c>
       <c r="Q2">
-        <v>55.47208581772225</v>
+        <v>10.812423650625</v>
       </c>
       <c r="R2">
-        <v>221.888343270889</v>
+        <v>43.24969460250001</v>
       </c>
       <c r="S2">
-        <v>0.1871875418484528</v>
+        <v>0.09821487785436472</v>
       </c>
       <c r="T2">
-        <v>0.1253816730410451</v>
+        <v>0.06659195709025542</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.4479585</v>
+        <v>3.288225</v>
       </c>
       <c r="H3">
-        <v>14.895917</v>
+        <v>6.57645</v>
       </c>
       <c r="I3">
-        <v>0.4326517558596669</v>
+        <v>0.3133925299913269</v>
       </c>
       <c r="J3">
-        <v>0.3540927463829852</v>
+        <v>0.2580541747196806</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>13.043768</v>
       </c>
       <c r="O3">
-        <v>0.25257073815266</v>
+        <v>0.4143896736729704</v>
       </c>
       <c r="P3">
-        <v>0.310065075839406</v>
+        <v>0.5118261047335536</v>
       </c>
       <c r="Q3">
-        <v>32.38314758254267</v>
+        <v>14.2969480106</v>
       </c>
       <c r="R3">
-        <v>194.298885495256</v>
+        <v>85.7816880636</v>
       </c>
       <c r="S3">
-        <v>0.1092751733405205</v>
+        <v>0.1298666282346525</v>
       </c>
       <c r="T3">
-        <v>0.1097917942614239</v>
+        <v>0.132078863057006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.4479585</v>
+        <v>3.288225</v>
       </c>
       <c r="H4">
-        <v>14.895917</v>
+        <v>6.57645</v>
       </c>
       <c r="I4">
-        <v>0.4326517558596669</v>
+        <v>0.3133925299913269</v>
       </c>
       <c r="J4">
-        <v>0.3540927463829852</v>
+        <v>0.2580541747196806</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.013972</v>
+        <v>0.08822433333333334</v>
       </c>
       <c r="N4">
-        <v>0.041916</v>
+        <v>0.264673</v>
       </c>
       <c r="O4">
-        <v>0.000811633192219219</v>
+        <v>0.008408441341493203</v>
       </c>
       <c r="P4">
-        <v>0.0009963905919581322</v>
+        <v>0.01038553818330285</v>
       </c>
       <c r="Q4">
-        <v>0.104062876162</v>
+        <v>0.290101458475</v>
       </c>
       <c r="R4">
-        <v>0.6243772569720001</v>
+        <v>1.74060875085</v>
       </c>
       <c r="S4">
-        <v>0.0003511545257276317</v>
+        <v>0.002635142705294222</v>
       </c>
       <c r="T4">
-        <v>0.0003528146811766234</v>
+        <v>0.002680031484911947</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.4479585</v>
+        <v>3.288225</v>
       </c>
       <c r="H5">
-        <v>14.895917</v>
+        <v>6.57645</v>
       </c>
       <c r="I5">
-        <v>0.4326517558596669</v>
+        <v>0.3133925299913269</v>
       </c>
       <c r="J5">
-        <v>0.3540927463829852</v>
+        <v>0.2580541747196806</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.1282205</v>
+        <v>2.7040685</v>
       </c>
       <c r="N5">
-        <v>4.256441000000001</v>
+        <v>5.408137</v>
       </c>
       <c r="O5">
-        <v>0.123628285010119</v>
+        <v>0.2577180297835009</v>
       </c>
       <c r="P5">
-        <v>0.1011804028920905</v>
+        <v>0.2122105893462231</v>
       </c>
       <c r="Q5">
-        <v>15.85089796284925</v>
+        <v>8.891585643412501</v>
       </c>
       <c r="R5">
-        <v>63.40359185139701</v>
+        <v>35.56634257365</v>
       </c>
       <c r="S5">
-        <v>0.05348799458354733</v>
+        <v>0.08076690537823147</v>
       </c>
       <c r="T5">
-        <v>0.03582724674019726</v>
+        <v>0.05476182850051665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.4479585</v>
+        <v>3.288225</v>
       </c>
       <c r="H6">
-        <v>14.895917</v>
+        <v>6.57645</v>
       </c>
       <c r="I6">
-        <v>0.4326517558596669</v>
+        <v>0.3133925299913269</v>
       </c>
       <c r="J6">
-        <v>0.3540927463829852</v>
+        <v>0.2580541747196806</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.923957333333334</v>
+        <v>0.04961633333333334</v>
       </c>
       <c r="N6">
-        <v>8.771872</v>
+        <v>0.148849</v>
       </c>
       <c r="O6">
-        <v>0.1698526212686894</v>
+        <v>0.004728809078523014</v>
       </c>
       <c r="P6">
-        <v>0.2085172901675009</v>
+        <v>0.005840705221335178</v>
       </c>
       <c r="Q6">
-        <v>21.77751287443733</v>
+        <v>0.163149667675</v>
       </c>
       <c r="R6">
-        <v>130.665077246624</v>
+        <v>0.9788980060500001</v>
       </c>
       <c r="S6">
-        <v>0.07348703482926548</v>
+        <v>0.001481973440964283</v>
       </c>
       <c r="T6">
-        <v>0.07383445994374821</v>
+        <v>0.001507218365672579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.4479585</v>
+        <v>3.288225</v>
       </c>
       <c r="H7">
-        <v>14.895917</v>
+        <v>6.57645</v>
       </c>
       <c r="I7">
-        <v>0.4326517558596669</v>
+        <v>0.3133925299913269</v>
       </c>
       <c r="J7">
-        <v>0.3540927463829852</v>
+        <v>0.2580541747196806</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3526420000000001</v>
+        <v>0.014296</v>
       </c>
       <c r="N7">
-        <v>1.057926</v>
+        <v>0.042888</v>
       </c>
       <c r="O7">
-        <v>0.02048496651664542</v>
+        <v>0.001362516132185605</v>
       </c>
       <c r="P7">
-        <v>0.02514809412605924</v>
+        <v>0.00168288779590473</v>
       </c>
       <c r="Q7">
-        <v>2.626462981357001</v>
+        <v>0.04700846460000001</v>
       </c>
       <c r="R7">
-        <v>15.758777888142</v>
+        <v>0.2820507876</v>
       </c>
       <c r="S7">
-        <v>0.008862856732153129</v>
+        <v>0.0004270023778196438</v>
       </c>
       <c r="T7">
-        <v>0.008904757715394134</v>
+        <v>0.0004342762213180173</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>13.043768</v>
       </c>
       <c r="I8">
-        <v>0.25257073815266</v>
+        <v>0.4143896736729704</v>
       </c>
       <c r="J8">
-        <v>0.310065075839406</v>
+        <v>0.5118261047335536</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.4479585</v>
+        <v>3.288225</v>
       </c>
       <c r="N8">
-        <v>14.895917</v>
+        <v>6.57645</v>
       </c>
       <c r="O8">
-        <v>0.4326517558596669</v>
+        <v>0.3133925299913269</v>
       </c>
       <c r="P8">
-        <v>0.3540927463829852</v>
+        <v>0.2580541747196806</v>
       </c>
       <c r="Q8">
-        <v>32.38314758254267</v>
+        <v>14.2969480106</v>
       </c>
       <c r="R8">
-        <v>194.298885495256</v>
+        <v>85.7816880636</v>
       </c>
       <c r="S8">
-        <v>0.1092751733405205</v>
+        <v>0.1298666282346525</v>
       </c>
       <c r="T8">
-        <v>0.1097917942614239</v>
+        <v>0.132078863057006</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>13.043768</v>
       </c>
       <c r="I9">
-        <v>0.25257073815266</v>
+        <v>0.4143896736729704</v>
       </c>
       <c r="J9">
-        <v>0.310065075839406</v>
+        <v>0.5118261047335536</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,10 +998,10 @@
         <v>13.043768</v>
       </c>
       <c r="O9">
-        <v>0.25257073815266</v>
+        <v>0.4143896736729704</v>
       </c>
       <c r="P9">
-        <v>0.310065075839406</v>
+        <v>0.5118261047335536</v>
       </c>
       <c r="Q9">
         <v>18.90443151531377</v>
@@ -1010,10 +1010,10 @@
         <v>170.139883637824</v>
       </c>
       <c r="S9">
-        <v>0.06379197777097954</v>
+        <v>0.1717188016467909</v>
       </c>
       <c r="T9">
-        <v>0.0961403512552966</v>
+        <v>0.2619659614867226</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>13.043768</v>
       </c>
       <c r="I10">
-        <v>0.25257073815266</v>
+        <v>0.4143896736729704</v>
       </c>
       <c r="J10">
-        <v>0.310065075839406</v>
+        <v>0.5118261047335536</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.013972</v>
+        <v>0.08822433333333334</v>
       </c>
       <c r="N10">
-        <v>0.041916</v>
+        <v>0.264673</v>
       </c>
       <c r="O10">
-        <v>0.000811633192219219</v>
+        <v>0.008408441341493203</v>
       </c>
       <c r="P10">
-        <v>0.0009963905919581322</v>
+        <v>0.01038553818330285</v>
       </c>
       <c r="Q10">
-        <v>0.06074917549866667</v>
+        <v>0.3835925786515555</v>
       </c>
       <c r="R10">
-        <v>0.546742579488</v>
+        <v>3.452333207864</v>
       </c>
       <c r="S10">
-        <v>0.0002049947944680079</v>
+        <v>0.003484371263599682</v>
       </c>
       <c r="T10">
-        <v>0.0003089459244611689</v>
+        <v>0.005315589553921484</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>13.043768</v>
       </c>
       <c r="I11">
-        <v>0.25257073815266</v>
+        <v>0.4143896736729704</v>
       </c>
       <c r="J11">
-        <v>0.310065075839406</v>
+        <v>0.5118261047335536</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.1282205</v>
+        <v>2.7040685</v>
       </c>
       <c r="N11">
-        <v>4.256441000000001</v>
+        <v>5.408137</v>
       </c>
       <c r="O11">
-        <v>0.123628285010119</v>
+        <v>0.2577180297835009</v>
       </c>
       <c r="P11">
-        <v>0.1011804028920905</v>
+        <v>0.2122105893462231</v>
       </c>
       <c r="Q11">
-        <v>9.253338151614667</v>
+        <v>11.75708072336933</v>
       </c>
       <c r="R11">
-        <v>55.52002890968801</v>
+        <v>70.54248434021601</v>
       </c>
       <c r="S11">
-        <v>0.03122488720155319</v>
+        <v>0.1067956902616258</v>
       </c>
       <c r="T11">
-        <v>0.0313725092961977</v>
+        <v>0.1086149193282891</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,40 +1166,40 @@
         <v>13.043768</v>
       </c>
       <c r="I12">
-        <v>0.25257073815266</v>
+        <v>0.4143896736729704</v>
       </c>
       <c r="J12">
-        <v>0.310065075839406</v>
+        <v>0.5118261047335536</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.923957333333334</v>
+        <v>0.04961633333333334</v>
       </c>
       <c r="N12">
-        <v>8.771872</v>
+        <v>0.148849</v>
       </c>
       <c r="O12">
-        <v>0.1698526212686894</v>
+        <v>0.004728809078523014</v>
       </c>
       <c r="P12">
-        <v>0.2085172901675009</v>
+        <v>0.005840705221335178</v>
       </c>
       <c r="Q12">
-        <v>12.71314036596622</v>
+        <v>0.2157279803368889</v>
       </c>
       <c r="R12">
-        <v>114.418263293696</v>
+        <v>1.941551823032</v>
       </c>
       <c r="S12">
-        <v>0.04289980193099709</v>
+        <v>0.001959569650910932</v>
       </c>
       <c r="T12">
-        <v>0.06465392938961359</v>
+        <v>0.002989425402332913</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,40 +1228,40 @@
         <v>13.043768</v>
       </c>
       <c r="I13">
-        <v>0.25257073815266</v>
+        <v>0.4143896736729704</v>
       </c>
       <c r="J13">
-        <v>0.310065075839406</v>
+        <v>0.5118261047335536</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.3526420000000001</v>
+        <v>0.014296</v>
       </c>
       <c r="N13">
-        <v>1.057926</v>
+        <v>0.042888</v>
       </c>
       <c r="O13">
-        <v>0.02048496651664542</v>
+        <v>0.001362516132185605</v>
       </c>
       <c r="P13">
-        <v>0.02514809412605924</v>
+        <v>0.00168288779590473</v>
       </c>
       <c r="Q13">
-        <v>1.533260145018667</v>
+        <v>0.06215790244266667</v>
       </c>
       <c r="R13">
-        <v>13.799341305168</v>
+        <v>0.5594211219840001</v>
       </c>
       <c r="S13">
-        <v>0.005173903114141659</v>
+        <v>0.0005646126153905505</v>
       </c>
       <c r="T13">
-        <v>0.007797545712413079</v>
+        <v>0.0008613459052815534</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.013972</v>
+        <v>0.08822433333333334</v>
       </c>
       <c r="H14">
-        <v>0.041916</v>
+        <v>0.264673</v>
       </c>
       <c r="I14">
-        <v>0.000811633192219219</v>
+        <v>0.008408441341493203</v>
       </c>
       <c r="J14">
-        <v>0.0009963905919581322</v>
+        <v>0.01038553818330285</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.4479585</v>
+        <v>3.288225</v>
       </c>
       <c r="N14">
-        <v>14.895917</v>
+        <v>6.57645</v>
       </c>
       <c r="O14">
-        <v>0.4326517558596669</v>
+        <v>0.3133925299913269</v>
       </c>
       <c r="P14">
-        <v>0.3540927463829852</v>
+        <v>0.2580541747196806</v>
       </c>
       <c r="Q14">
-        <v>0.104062876162</v>
+        <v>0.290101458475</v>
       </c>
       <c r="R14">
-        <v>0.6243772569720001</v>
+        <v>1.74060875085</v>
       </c>
       <c r="S14">
-        <v>0.0003511545257276317</v>
+        <v>0.002635142705294222</v>
       </c>
       <c r="T14">
-        <v>0.0003528146811766234</v>
+        <v>0.002680031484911947</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.013972</v>
+        <v>0.08822433333333334</v>
       </c>
       <c r="H15">
-        <v>0.041916</v>
+        <v>0.264673</v>
       </c>
       <c r="I15">
-        <v>0.000811633192219219</v>
+        <v>0.008408441341493203</v>
       </c>
       <c r="J15">
-        <v>0.0009963905919581322</v>
+        <v>0.01038553818330285</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>13.043768</v>
       </c>
       <c r="O15">
-        <v>0.25257073815266</v>
+        <v>0.4143896736729704</v>
       </c>
       <c r="P15">
-        <v>0.310065075839406</v>
+        <v>0.5118261047335536</v>
       </c>
       <c r="Q15">
-        <v>0.06074917549866667</v>
+        <v>0.3835925786515555</v>
       </c>
       <c r="R15">
-        <v>0.546742579488</v>
+        <v>3.452333207864</v>
       </c>
       <c r="S15">
-        <v>0.0002049947944680079</v>
+        <v>0.003484371263599682</v>
       </c>
       <c r="T15">
-        <v>0.0003089459244611689</v>
+        <v>0.005315589553921484</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.013972</v>
+        <v>0.08822433333333334</v>
       </c>
       <c r="H16">
-        <v>0.041916</v>
+        <v>0.264673</v>
       </c>
       <c r="I16">
-        <v>0.000811633192219219</v>
+        <v>0.008408441341493203</v>
       </c>
       <c r="J16">
-        <v>0.0009963905919581322</v>
+        <v>0.01038553818330285</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.013972</v>
+        <v>0.08822433333333334</v>
       </c>
       <c r="N16">
-        <v>0.041916</v>
+        <v>0.264673</v>
       </c>
       <c r="O16">
-        <v>0.000811633192219219</v>
+        <v>0.008408441341493203</v>
       </c>
       <c r="P16">
-        <v>0.0009963905919581322</v>
+        <v>0.01038553818330285</v>
       </c>
       <c r="Q16">
-        <v>0.000195216784</v>
+        <v>0.007783532992111111</v>
       </c>
       <c r="R16">
-        <v>0.001756951056</v>
+        <v>0.070051796929</v>
       </c>
       <c r="S16">
-        <v>6.587484387119598E-07</v>
+        <v>7.070188579333201E-05</v>
       </c>
       <c r="T16">
-        <v>9.927942117426771E-07</v>
+        <v>0.0001078594033568414</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.013972</v>
+        <v>0.08822433333333334</v>
       </c>
       <c r="H17">
-        <v>0.041916</v>
+        <v>0.264673</v>
       </c>
       <c r="I17">
-        <v>0.000811633192219219</v>
+        <v>0.008408441341493203</v>
       </c>
       <c r="J17">
-        <v>0.0009963905919581322</v>
+        <v>0.01038553818330285</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.1282205</v>
+        <v>2.7040685</v>
       </c>
       <c r="N17">
-        <v>4.256441000000001</v>
+        <v>5.408137</v>
       </c>
       <c r="O17">
-        <v>0.123628285010119</v>
+        <v>0.2577180297835009</v>
       </c>
       <c r="P17">
-        <v>0.1011804028920905</v>
+        <v>0.2122105893462231</v>
       </c>
       <c r="Q17">
-        <v>0.029735496826</v>
+        <v>0.2385646407001667</v>
       </c>
       <c r="R17">
-        <v>0.178412980956</v>
+        <v>1.431387844201</v>
       </c>
       <c r="S17">
-        <v>0.0001003408196113503</v>
+        <v>0.002167006936079765</v>
       </c>
       <c r="T17">
-        <v>0.0001008152015322124</v>
+        <v>0.002203921178556401</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.08822433333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.264673</v>
+      </c>
+      <c r="I18">
+        <v>0.008408441341493203</v>
+      </c>
+      <c r="J18">
+        <v>0.01038553818330285</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G18">
-        <v>0.013972</v>
-      </c>
-      <c r="H18">
-        <v>0.041916</v>
-      </c>
-      <c r="I18">
-        <v>0.000811633192219219</v>
-      </c>
-      <c r="J18">
-        <v>0.0009963905919581322</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
-        <v>2.923957333333334</v>
+        <v>0.04961633333333334</v>
       </c>
       <c r="N18">
-        <v>8.771872</v>
+        <v>0.148849</v>
       </c>
       <c r="O18">
-        <v>0.1698526212686894</v>
+        <v>0.004728809078523014</v>
       </c>
       <c r="P18">
-        <v>0.2085172901675009</v>
+        <v>0.005840705221335178</v>
       </c>
       <c r="Q18">
-        <v>0.04085353186133334</v>
+        <v>0.004377367930777779</v>
       </c>
       <c r="R18">
-        <v>0.367681786752</v>
+        <v>0.039396311377</v>
       </c>
       <c r="S18">
-        <v>0.0001378580252071084</v>
+        <v>3.976191375188129E-05</v>
       </c>
       <c r="T18">
-        <v>0.0002077646661835018</v>
+        <v>6.065886709359281E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.08822433333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.264673</v>
+      </c>
+      <c r="I19">
+        <v>0.008408441341493203</v>
+      </c>
+      <c r="J19">
+        <v>0.01038553818330285</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G19">
-        <v>0.013972</v>
-      </c>
-      <c r="H19">
-        <v>0.041916</v>
-      </c>
-      <c r="I19">
-        <v>0.000811633192219219</v>
-      </c>
-      <c r="J19">
-        <v>0.0009963905919581322</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
-        <v>0.3526420000000001</v>
+        <v>0.014296</v>
       </c>
       <c r="N19">
-        <v>1.057926</v>
+        <v>0.042888</v>
       </c>
       <c r="O19">
-        <v>0.02048496651664542</v>
+        <v>0.001362516132185605</v>
       </c>
       <c r="P19">
-        <v>0.02514809412605924</v>
+        <v>0.00168288779590473</v>
       </c>
       <c r="Q19">
-        <v>0.004927114024000001</v>
+        <v>0.001261255069333334</v>
       </c>
       <c r="R19">
-        <v>0.04434402621600001</v>
+        <v>0.011351295624</v>
       </c>
       <c r="S19">
-        <v>1.662627876640874E-05</v>
+        <v>1.145663697432085E-05</v>
       </c>
       <c r="T19">
-        <v>2.5057324392883E-05</v>
+        <v>1.747769546258294E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.1282205</v>
+        <v>2.7040685</v>
       </c>
       <c r="H20">
-        <v>4.256441000000001</v>
+        <v>5.408137</v>
       </c>
       <c r="I20">
-        <v>0.123628285010119</v>
+        <v>0.2577180297835009</v>
       </c>
       <c r="J20">
-        <v>0.1011804028920905</v>
+        <v>0.2122105893462231</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.4479585</v>
+        <v>3.288225</v>
       </c>
       <c r="N20">
-        <v>14.895917</v>
+        <v>6.57645</v>
       </c>
       <c r="O20">
-        <v>0.4326517558596669</v>
+        <v>0.3133925299913269</v>
       </c>
       <c r="P20">
-        <v>0.3540927463829852</v>
+        <v>0.2580541747196806</v>
       </c>
       <c r="Q20">
-        <v>15.85089796284925</v>
+        <v>8.891585643412501</v>
       </c>
       <c r="R20">
-        <v>63.40359185139701</v>
+        <v>35.56634257365</v>
       </c>
       <c r="S20">
-        <v>0.05348799458354733</v>
+        <v>0.08076690537823147</v>
       </c>
       <c r="T20">
-        <v>0.03582724674019726</v>
+        <v>0.05476182850051665</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.1282205</v>
+        <v>2.7040685</v>
       </c>
       <c r="H21">
-        <v>4.256441000000001</v>
+        <v>5.408137</v>
       </c>
       <c r="I21">
-        <v>0.123628285010119</v>
+        <v>0.2577180297835009</v>
       </c>
       <c r="J21">
-        <v>0.1011804028920905</v>
+        <v>0.2122105893462231</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,22 +1742,22 @@
         <v>13.043768</v>
       </c>
       <c r="O21">
-        <v>0.25257073815266</v>
+        <v>0.4143896736729704</v>
       </c>
       <c r="P21">
-        <v>0.310065075839406</v>
+        <v>0.5118261047335536</v>
       </c>
       <c r="Q21">
-        <v>9.253338151614667</v>
+        <v>11.75708072336933</v>
       </c>
       <c r="R21">
-        <v>55.52002890968801</v>
+        <v>70.54248434021601</v>
       </c>
       <c r="S21">
-        <v>0.03122488720155319</v>
+        <v>0.1067956902616258</v>
       </c>
       <c r="T21">
-        <v>0.0313725092961977</v>
+        <v>0.1086149193282891</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.1282205</v>
+        <v>2.7040685</v>
       </c>
       <c r="H22">
-        <v>4.256441000000001</v>
+        <v>5.408137</v>
       </c>
       <c r="I22">
-        <v>0.123628285010119</v>
+        <v>0.2577180297835009</v>
       </c>
       <c r="J22">
-        <v>0.1011804028920905</v>
+        <v>0.2122105893462231</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.013972</v>
+        <v>0.08822433333333334</v>
       </c>
       <c r="N22">
-        <v>0.041916</v>
+        <v>0.264673</v>
       </c>
       <c r="O22">
-        <v>0.000811633192219219</v>
+        <v>0.008408441341493203</v>
       </c>
       <c r="P22">
-        <v>0.0009963905919581322</v>
+        <v>0.01038553818330285</v>
       </c>
       <c r="Q22">
-        <v>0.029735496826</v>
+        <v>0.2385646407001667</v>
       </c>
       <c r="R22">
-        <v>0.178412980956</v>
+        <v>1.431387844201</v>
       </c>
       <c r="S22">
-        <v>0.0001003408196113503</v>
+        <v>0.002167006936079765</v>
       </c>
       <c r="T22">
-        <v>0.0001008152015322124</v>
+        <v>0.002203921178556401</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.1282205</v>
+        <v>2.7040685</v>
       </c>
       <c r="H23">
-        <v>4.256441000000001</v>
+        <v>5.408137</v>
       </c>
       <c r="I23">
-        <v>0.123628285010119</v>
+        <v>0.2577180297835009</v>
       </c>
       <c r="J23">
-        <v>0.1011804028920905</v>
+        <v>0.2122105893462231</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.1282205</v>
+        <v>2.7040685</v>
       </c>
       <c r="N23">
-        <v>4.256441000000001</v>
+        <v>5.408137</v>
       </c>
       <c r="O23">
-        <v>0.123628285010119</v>
+        <v>0.2577180297835009</v>
       </c>
       <c r="P23">
-        <v>0.1011804028920905</v>
+        <v>0.2122105893462231</v>
       </c>
       <c r="Q23">
-        <v>4.529322496620251</v>
+        <v>7.31198645269225</v>
       </c>
       <c r="R23">
-        <v>18.117289986481</v>
+        <v>29.247945810769</v>
       </c>
       <c r="S23">
-        <v>0.01528395285454321</v>
+        <v>0.06641858287548945</v>
       </c>
       <c r="T23">
-        <v>0.01023747392940576</v>
+        <v>0.04503333423067135</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.1282205</v>
+        <v>2.7040685</v>
       </c>
       <c r="H24">
-        <v>4.256441000000001</v>
+        <v>5.408137</v>
       </c>
       <c r="I24">
-        <v>0.123628285010119</v>
+        <v>0.2577180297835009</v>
       </c>
       <c r="J24">
-        <v>0.1011804028920905</v>
+        <v>0.2122105893462231</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>2.923957333333334</v>
+        <v>0.04961633333333334</v>
       </c>
       <c r="N24">
-        <v>8.771872</v>
+        <v>0.148849</v>
       </c>
       <c r="O24">
-        <v>0.1698526212686894</v>
+        <v>0.004728809078523014</v>
       </c>
       <c r="P24">
-        <v>0.2085172901675009</v>
+        <v>0.005840705221335178</v>
       </c>
       <c r="Q24">
-        <v>6.222825937925335</v>
+        <v>0.1341659640521667</v>
       </c>
       <c r="R24">
-        <v>37.33695562755201</v>
+        <v>0.804995784313</v>
       </c>
       <c r="S24">
-        <v>0.02099858827192133</v>
+        <v>0.001218699358939284</v>
       </c>
       <c r="T24">
-        <v>0.02109786342911468</v>
+        <v>0.001239459497217101</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.1282205</v>
+        <v>2.7040685</v>
       </c>
       <c r="H25">
-        <v>4.256441000000001</v>
+        <v>5.408137</v>
       </c>
       <c r="I25">
-        <v>0.123628285010119</v>
+        <v>0.2577180297835009</v>
       </c>
       <c r="J25">
-        <v>0.1011804028920905</v>
+        <v>0.2122105893462231</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.3526420000000001</v>
+        <v>0.014296</v>
       </c>
       <c r="N25">
-        <v>1.057926</v>
+        <v>0.042888</v>
       </c>
       <c r="O25">
-        <v>0.02048496651664542</v>
+        <v>0.001362516132185605</v>
       </c>
       <c r="P25">
-        <v>0.02514809412605924</v>
+        <v>0.00168288779590473</v>
       </c>
       <c r="Q25">
-        <v>0.7504999335610002</v>
+        <v>0.038657363276</v>
       </c>
       <c r="R25">
-        <v>4.502999601366001</v>
+        <v>0.231944179656</v>
       </c>
       <c r="S25">
-        <v>0.002532521278942585</v>
+        <v>0.00035114497313511</v>
       </c>
       <c r="T25">
-        <v>0.002544494295642889</v>
+        <v>0.0003571266109725092</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>2.923957333333334</v>
+        <v>0.04961633333333334</v>
       </c>
       <c r="H26">
-        <v>8.771872</v>
+        <v>0.148849</v>
       </c>
       <c r="I26">
-        <v>0.1698526212686894</v>
+        <v>0.004728809078523014</v>
       </c>
       <c r="J26">
-        <v>0.2085172901675009</v>
+        <v>0.005840705221335178</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.4479585</v>
+        <v>3.288225</v>
       </c>
       <c r="N26">
-        <v>14.895917</v>
+        <v>6.57645</v>
       </c>
       <c r="O26">
-        <v>0.4326517558596669</v>
+        <v>0.3133925299913269</v>
       </c>
       <c r="P26">
-        <v>0.3540927463829852</v>
+        <v>0.2580541747196806</v>
       </c>
       <c r="Q26">
-        <v>21.77751287443733</v>
+        <v>0.163149667675</v>
       </c>
       <c r="R26">
-        <v>130.665077246624</v>
+        <v>0.9788980060500001</v>
       </c>
       <c r="S26">
-        <v>0.07348703482926548</v>
+        <v>0.001481973440964283</v>
       </c>
       <c r="T26">
-        <v>0.07383445994374821</v>
+        <v>0.001507218365672579</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2084,22 +2084,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>2.923957333333334</v>
+        <v>0.04961633333333334</v>
       </c>
       <c r="H27">
-        <v>8.771872</v>
+        <v>0.148849</v>
       </c>
       <c r="I27">
-        <v>0.1698526212686894</v>
+        <v>0.004728809078523014</v>
       </c>
       <c r="J27">
-        <v>0.2085172901675009</v>
+        <v>0.005840705221335178</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,22 +2114,22 @@
         <v>13.043768</v>
       </c>
       <c r="O27">
-        <v>0.25257073815266</v>
+        <v>0.4143896736729704</v>
       </c>
       <c r="P27">
-        <v>0.310065075839406</v>
+        <v>0.5118261047335536</v>
       </c>
       <c r="Q27">
-        <v>12.71314036596622</v>
+        <v>0.2157279803368889</v>
       </c>
       <c r="R27">
-        <v>114.418263293696</v>
+        <v>1.941551823032</v>
       </c>
       <c r="S27">
-        <v>0.04289980193099709</v>
+        <v>0.001959569650910932</v>
       </c>
       <c r="T27">
-        <v>0.06465392938961359</v>
+        <v>0.002989425402332913</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,52 +2146,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>2.923957333333334</v>
+        <v>0.04961633333333334</v>
       </c>
       <c r="H28">
-        <v>8.771872</v>
+        <v>0.148849</v>
       </c>
       <c r="I28">
-        <v>0.1698526212686894</v>
+        <v>0.004728809078523014</v>
       </c>
       <c r="J28">
-        <v>0.2085172901675009</v>
+        <v>0.005840705221335178</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.013972</v>
+        <v>0.08822433333333334</v>
       </c>
       <c r="N28">
-        <v>0.041916</v>
+        <v>0.264673</v>
       </c>
       <c r="O28">
-        <v>0.000811633192219219</v>
+        <v>0.008408441341493203</v>
       </c>
       <c r="P28">
-        <v>0.0009963905919581322</v>
+        <v>0.01038553818330285</v>
       </c>
       <c r="Q28">
-        <v>0.04085353186133334</v>
+        <v>0.004377367930777779</v>
       </c>
       <c r="R28">
-        <v>0.367681786752</v>
+        <v>0.039396311377</v>
       </c>
       <c r="S28">
-        <v>0.0001378580252071084</v>
+        <v>3.976191375188129E-05</v>
       </c>
       <c r="T28">
-        <v>0.0002077646661835018</v>
+        <v>6.065886709359281E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,22 +2208,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>2.923957333333334</v>
+        <v>0.04961633333333334</v>
       </c>
       <c r="H29">
-        <v>8.771872</v>
+        <v>0.148849</v>
       </c>
       <c r="I29">
-        <v>0.1698526212686894</v>
+        <v>0.004728809078523014</v>
       </c>
       <c r="J29">
-        <v>0.2085172901675009</v>
+        <v>0.005840705221335178</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2232,28 +2232,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.1282205</v>
+        <v>2.7040685</v>
       </c>
       <c r="N29">
-        <v>4.256441000000001</v>
+        <v>5.408137</v>
       </c>
       <c r="O29">
-        <v>0.123628285010119</v>
+        <v>0.2577180297835009</v>
       </c>
       <c r="P29">
-        <v>0.1011804028920905</v>
+        <v>0.2122105893462231</v>
       </c>
       <c r="Q29">
-        <v>6.222825937925335</v>
+        <v>0.1341659640521667</v>
       </c>
       <c r="R29">
-        <v>37.33695562755201</v>
+        <v>0.804995784313</v>
       </c>
       <c r="S29">
-        <v>0.02099858827192133</v>
+        <v>0.001218699358939284</v>
       </c>
       <c r="T29">
-        <v>0.02109786342911468</v>
+        <v>0.001239459497217101</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,52 +2270,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>2.923957333333334</v>
+        <v>0.04961633333333334</v>
       </c>
       <c r="H30">
-        <v>8.771872</v>
+        <v>0.148849</v>
       </c>
       <c r="I30">
-        <v>0.1698526212686894</v>
+        <v>0.004728809078523014</v>
       </c>
       <c r="J30">
-        <v>0.2085172901675009</v>
+        <v>0.005840705221335178</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>2.923957333333334</v>
+        <v>0.04961633333333334</v>
       </c>
       <c r="N30">
-        <v>8.771872</v>
+        <v>0.148849</v>
       </c>
       <c r="O30">
-        <v>0.1698526212686894</v>
+        <v>0.004728809078523014</v>
       </c>
       <c r="P30">
-        <v>0.2085172901675009</v>
+        <v>0.005840705221335178</v>
       </c>
       <c r="Q30">
-        <v>8.549526487153779</v>
+        <v>0.002461780533444445</v>
       </c>
       <c r="R30">
-        <v>76.945738384384</v>
+        <v>0.022156024801</v>
       </c>
       <c r="S30">
-        <v>0.02884991295184484</v>
+        <v>2.236163530112168E-05</v>
       </c>
       <c r="T30">
-        <v>0.04347946029879775</v>
+        <v>3.411383748253202E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,52 +2332,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>2.923957333333334</v>
+        <v>0.04961633333333334</v>
       </c>
       <c r="H31">
-        <v>8.771872</v>
+        <v>0.148849</v>
       </c>
       <c r="I31">
-        <v>0.1698526212686894</v>
+        <v>0.004728809078523014</v>
       </c>
       <c r="J31">
-        <v>0.2085172901675009</v>
+        <v>0.005840705221335178</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.3526420000000001</v>
+        <v>0.014296</v>
       </c>
       <c r="N31">
-        <v>1.057926</v>
+        <v>0.042888</v>
       </c>
       <c r="O31">
-        <v>0.02048496651664542</v>
+        <v>0.001362516132185605</v>
       </c>
       <c r="P31">
-        <v>0.02514809412605924</v>
+        <v>0.00168288779590473</v>
       </c>
       <c r="Q31">
-        <v>1.031110161941334</v>
+        <v>0.0007093151013333335</v>
       </c>
       <c r="R31">
-        <v>9.279991457472001</v>
+        <v>0.006383835912000001</v>
       </c>
       <c r="S31">
-        <v>0.003479425259453559</v>
+        <v>6.44307865551335E-06</v>
       </c>
       <c r="T31">
-        <v>0.005243812440043119</v>
+        <v>9.829251536462005E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2394,22 +2394,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.3526420000000001</v>
+        <v>0.014296</v>
       </c>
       <c r="H32">
-        <v>1.057926</v>
+        <v>0.042888</v>
       </c>
       <c r="I32">
-        <v>0.02048496651664542</v>
+        <v>0.001362516132185605</v>
       </c>
       <c r="J32">
-        <v>0.02514809412605924</v>
+        <v>0.00168288779590473</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2418,28 +2418,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.4479585</v>
+        <v>3.288225</v>
       </c>
       <c r="N32">
-        <v>14.895917</v>
+        <v>6.57645</v>
       </c>
       <c r="O32">
-        <v>0.4326517558596669</v>
+        <v>0.3133925299913269</v>
       </c>
       <c r="P32">
-        <v>0.3540927463829852</v>
+        <v>0.2580541747196806</v>
       </c>
       <c r="Q32">
-        <v>2.626462981357001</v>
+        <v>0.04700846460000001</v>
       </c>
       <c r="R32">
-        <v>15.758777888142</v>
+        <v>0.2820507876</v>
       </c>
       <c r="S32">
-        <v>0.008862856732153129</v>
+        <v>0.0004270023778196438</v>
       </c>
       <c r="T32">
-        <v>0.008904757715394134</v>
+        <v>0.0004342762213180173</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2456,22 +2456,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.3526420000000001</v>
+        <v>0.014296</v>
       </c>
       <c r="H33">
-        <v>1.057926</v>
+        <v>0.042888</v>
       </c>
       <c r="I33">
-        <v>0.02048496651664542</v>
+        <v>0.001362516132185605</v>
       </c>
       <c r="J33">
-        <v>0.02514809412605924</v>
+        <v>0.00168288779590473</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,22 +2486,22 @@
         <v>13.043768</v>
       </c>
       <c r="O33">
-        <v>0.25257073815266</v>
+        <v>0.4143896736729704</v>
       </c>
       <c r="P33">
-        <v>0.310065075839406</v>
+        <v>0.5118261047335536</v>
       </c>
       <c r="Q33">
-        <v>1.533260145018667</v>
+        <v>0.06215790244266667</v>
       </c>
       <c r="R33">
-        <v>13.799341305168</v>
+        <v>0.5594211219840001</v>
       </c>
       <c r="S33">
-        <v>0.005173903114141659</v>
+        <v>0.0005646126153905505</v>
       </c>
       <c r="T33">
-        <v>0.007797545712413079</v>
+        <v>0.0008613459052815534</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2518,52 +2518,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.3526420000000001</v>
+        <v>0.014296</v>
       </c>
       <c r="H34">
-        <v>1.057926</v>
+        <v>0.042888</v>
       </c>
       <c r="I34">
-        <v>0.02048496651664542</v>
+        <v>0.001362516132185605</v>
       </c>
       <c r="J34">
-        <v>0.02514809412605924</v>
+        <v>0.00168288779590473</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.013972</v>
+        <v>0.08822433333333334</v>
       </c>
       <c r="N34">
-        <v>0.041916</v>
+        <v>0.264673</v>
       </c>
       <c r="O34">
-        <v>0.000811633192219219</v>
+        <v>0.008408441341493203</v>
       </c>
       <c r="P34">
-        <v>0.0009963905919581322</v>
+        <v>0.01038553818330285</v>
       </c>
       <c r="Q34">
-        <v>0.004927114024000001</v>
+        <v>0.001261255069333334</v>
       </c>
       <c r="R34">
-        <v>0.04434402621600001</v>
+        <v>0.011351295624</v>
       </c>
       <c r="S34">
-        <v>1.662627876640874E-05</v>
+        <v>1.145663697432085E-05</v>
       </c>
       <c r="T34">
-        <v>2.5057324392883E-05</v>
+        <v>1.747769546258294E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2580,22 +2580,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.3526420000000001</v>
+        <v>0.014296</v>
       </c>
       <c r="H35">
-        <v>1.057926</v>
+        <v>0.042888</v>
       </c>
       <c r="I35">
-        <v>0.02048496651664542</v>
+        <v>0.001362516132185605</v>
       </c>
       <c r="J35">
-        <v>0.02514809412605924</v>
+        <v>0.00168288779590473</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2604,28 +2604,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.1282205</v>
+        <v>2.7040685</v>
       </c>
       <c r="N35">
-        <v>4.256441000000001</v>
+        <v>5.408137</v>
       </c>
       <c r="O35">
-        <v>0.123628285010119</v>
+        <v>0.2577180297835009</v>
       </c>
       <c r="P35">
-        <v>0.1011804028920905</v>
+        <v>0.2122105893462231</v>
       </c>
       <c r="Q35">
-        <v>0.7504999335610002</v>
+        <v>0.038657363276</v>
       </c>
       <c r="R35">
-        <v>4.502999601366001</v>
+        <v>0.231944179656</v>
       </c>
       <c r="S35">
-        <v>0.002532521278942585</v>
+        <v>0.00035114497313511</v>
       </c>
       <c r="T35">
-        <v>0.002544494295642889</v>
+        <v>0.0003571266109725092</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2642,52 +2642,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.3526420000000001</v>
+        <v>0.014296</v>
       </c>
       <c r="H36">
-        <v>1.057926</v>
+        <v>0.042888</v>
       </c>
       <c r="I36">
-        <v>0.02048496651664542</v>
+        <v>0.001362516132185605</v>
       </c>
       <c r="J36">
-        <v>0.02514809412605924</v>
+        <v>0.00168288779590473</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M36">
-        <v>2.923957333333334</v>
+        <v>0.04961633333333334</v>
       </c>
       <c r="N36">
-        <v>8.771872</v>
+        <v>0.148849</v>
       </c>
       <c r="O36">
-        <v>0.1698526212686894</v>
+        <v>0.004728809078523014</v>
       </c>
       <c r="P36">
-        <v>0.2085172901675009</v>
+        <v>0.005840705221335178</v>
       </c>
       <c r="Q36">
-        <v>1.031110161941334</v>
+        <v>0.0007093151013333335</v>
       </c>
       <c r="R36">
-        <v>9.279991457472001</v>
+        <v>0.006383835912000001</v>
       </c>
       <c r="S36">
-        <v>0.003479425259453559</v>
+        <v>6.44307865551335E-06</v>
       </c>
       <c r="T36">
-        <v>0.005243812440043119</v>
+        <v>9.829251536462005E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2704,52 +2704,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.3526420000000001</v>
+        <v>0.014296</v>
       </c>
       <c r="H37">
-        <v>1.057926</v>
+        <v>0.042888</v>
       </c>
       <c r="I37">
-        <v>0.02048496651664542</v>
+        <v>0.001362516132185605</v>
       </c>
       <c r="J37">
-        <v>0.02514809412605924</v>
+        <v>0.00168288779590473</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.3526420000000001</v>
+        <v>0.014296</v>
       </c>
       <c r="N37">
-        <v>1.057926</v>
+        <v>0.042888</v>
       </c>
       <c r="O37">
-        <v>0.02048496651664542</v>
+        <v>0.001362516132185605</v>
       </c>
       <c r="P37">
-        <v>0.02514809412605924</v>
+        <v>0.00168288779590473</v>
       </c>
       <c r="Q37">
-        <v>0.1243563801640001</v>
+        <v>0.0002043756160000001</v>
       </c>
       <c r="R37">
-        <v>1.119207421476</v>
+        <v>0.001839380544</v>
       </c>
       <c r="S37">
-        <v>0.0004196338531880842</v>
+        <v>1.85645021046602E-06</v>
       </c>
       <c r="T37">
-        <v>0.0006324266381731354</v>
+        <v>2.83211133360508E-06</v>
       </c>
     </row>
   </sheetData>
